--- a/biology/Botanique/Château_de_Mornay/Château_de_Mornay.xlsx
+++ b/biology/Botanique/Château_de_Mornay/Château_de_Mornay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mornay</t>
+          <t>Château_de_Mornay</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Mornay est situé en Charente-Maritime, sur la commune de Saint-Pierre-de-l'Isle.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mornay</t>
+          <t>Château_de_Mornay</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier seigneur aurait été Pierre Pastureau au XVe siècle, père de Guillaume Patureau de Mornay (1466 - 1534), second seigneur du lieu.
 Le château a été reconstruit vers 1642 (date pour laquelle une gabare a disparu avec sa cargaison destinée à la construction du château de Mornay).
@@ -522,7 +536,7 @@
 Les autres pièces étaient meublées et aménagées au XVIIIe siècle, on y conservait des cartons de tapisserie par François Boucher.
 En 1947 les peintures de la galerie et les appartements sont détruits par un incendie.
 Il est vendu en 1949 et devient une maison de repos et de convalescence.
-Le château, sa porterie, la tour du Chardon et le parc fait l’objet d’une inscription au titre des monuments historiques depuis le 22 août 1949[1].
+Le château, sa porterie, la tour du Chardon et le parc fait l’objet d’une inscription au titre des monuments historiques depuis le 22 août 1949.
 Le château de Mornay accueille aujourd'hui des chambres d'hôtes et des activités de réceptions et de séminaires.
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mornay</t>
+          <t>Château_de_Mornay</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un châtelet d'entrée précède le château.
 Le logis construit au XVIIe siècle, entouré de douves, aurait été prévu en U et resté inachevé, ce qui n'est pas certain. Le logis est donc un bâtiment en L flanqué de deux pavillons fortifiés.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mornay</t>
+          <t>Château_de_Mornay</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,11 +602,13 @@
           <t>Parc et jardin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se prolonge le long de la rivière Boutonne par la « peupleraie » plantée aussi d'aulnes, de charmes et de frênes. Certains des arbres du parc, remarquables par leur taille et leur âge, sont classés.
 Les parcours sont jalonnés de statues du XVIIIe siècle et du XIXe siècle: Diane Chasseresse, une copie du Faune Borghèse, des bustes féminins. Dans le verger se dresse un obélisque. Il subsiste aussi un ancien pavillon du XVe siècle, dit « Tour du chardon » à cause de la forme de son épi de faîtage en plomb.
-Le parc a été inscrit monument historique le 22 août 1942 et il est inscrit au pré-inventaire des jardins remarquables[2].
+Le parc a été inscrit monument historique le 22 août 1942 et il est inscrit au pré-inventaire des jardins remarquables.
 </t>
         </is>
       </c>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Mornay</t>
+          <t>Château_de_Mornay</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Visites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La visite du parc est autorisée tous les jours de 14h30 à 18h30.
 </t>
